--- a/data/trans_dic/P25A$medico-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P25A$medico-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>31,73; 42,74</t>
+          <t>31,96; 42,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>24,08; 33,67</t>
+          <t>24,13; 34,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>20,14; 31,69</t>
+          <t>19,93; 31,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,33; 27,44</t>
+          <t>6,1; 26,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>12,04; 31,38</t>
+          <t>11,58; 31,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,57; 21,82</t>
+          <t>2,55; 21,55</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>29,59; 39,49</t>
+          <t>29,1; 39,47</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>23,23; 31,84</t>
+          <t>23,23; 32,31</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>17,63; 28,29</t>
+          <t>17,99; 27,96</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,07; 24,95</t>
+          <t>14,81; 24,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,14; 16,51</t>
+          <t>8,77; 16,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,31; 21,27</t>
+          <t>12,33; 21,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,61; 12,97</t>
+          <t>3,67; 13,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,32; 11,98</t>
+          <t>4,36; 12,31</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,88; 15,55</t>
+          <t>6,73; 15,97</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,6; 18,48</t>
+          <t>11,07; 18,55</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,06; 13,12</t>
+          <t>7,95; 13,35</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>11,32; 17,4</t>
+          <t>11,45; 18,11</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,06; 22,21</t>
+          <t>6,06; 21,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,11; 20,37</t>
+          <t>5,79; 20,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,01; 23,75</t>
+          <t>6,62; 22,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,88; 14,06</t>
+          <t>0,0; 15,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,37</t>
+          <t>0,0; 7,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,96; 11,65</t>
+          <t>1,98; 11,57</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,26; 15,69</t>
+          <t>5,67; 17,08</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,07; 13,81</t>
+          <t>4,02; 12,82</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,26; 14,58</t>
+          <t>5,38; 14,23</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>23,81; 30,56</t>
+          <t>23,46; 30,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,94; 22,68</t>
+          <t>16,9; 22,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,74; 22,29</t>
+          <t>16,04; 22,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,37; 12,57</t>
+          <t>5,34; 13,31</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,2; 12,12</t>
+          <t>6,3; 12,19</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,25; 12,62</t>
+          <t>6,27; 12,73</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>19,03; 24,55</t>
+          <t>18,99; 24,54</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,09; 18,41</t>
+          <t>13,96; 18,48</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>13,19; 18,05</t>
+          <t>13,06; 18,05</t>
         </is>
       </c>
     </row>
@@ -1079,4 +1080,799 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo motivo para dejar de fumar fue, al menos, el consejo médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>113004</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>106973</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>52937</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>6958</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>14493</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>3057</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>119962</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>121466</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>55993</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>96862; 130251</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>89777; 127273</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>41811; 65548</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>2937; 12734</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>7999; 21488</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>959; 8109</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>102204; 138627</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>102491; 142544</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>44525; 69195</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>45858</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>42652</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>50038</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>11083</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>17994</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>22118</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>56941</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>60646</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>72156</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>35106; 59108</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>30491; 57055</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>37233; 64106</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>5543; 19932</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>10465; 29566</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>13529; 32115</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>42972; 72022</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>46723; 78488</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>57604; 91110</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>10636</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>11151</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>12007</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>3011</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>4901</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>13647</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>13138</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>16908</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>5115; 18537</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5573; 19299</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>5935; 20330</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 7873</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6173</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1887; 10999</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>7703; 23194</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>6990; 22272</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>9930; 26274</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>169499</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>160776</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>114982</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>21051</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>34474</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>30075</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>190550</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>195250</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>145058</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>146547; 191499</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>137926; 184183</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>96472; 136205</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>13395; 33379</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>24372; 47132</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>20931; 42491</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>166235; 214789</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>167872; 222191</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>122138; 168766</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>